--- a/files/20220815_movimentacaoFundosAnbima.xlsx
+++ b/files/20220815_movimentacaoFundosAnbima.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tower3br-my.sharepoint.com/personal/kevyn_marcelino_tower3_com_br/Documents/Área de Trabalho/Projetos/ANBIMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tower3br-my.sharepoint.com/personal/kevyn_marcelino_tower3_com_br/Documents/Área de Trabalho/Projetos/ANBIMA/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_6F4DE414D831921FD2FE31D2F8F2D3C244531FBA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EC35F25-7B04-4383-AE0D-05AA304EDD4A}"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
